--- a/data/trans_dic/P22$notiene-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Clase-trans_dic.xlsx
@@ -734,7 +734,7 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01437243376218065</v>
+        <v>0.01417323082796753</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
@@ -744,7 +744,7 @@
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.008900373682982195</v>
+        <v>0.009442698576465463</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -835,13 +835,13 @@
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.005289437080429556</v>
+        <v>0.005165572038306651</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.002444277560268786</v>
+        <v>0.002304071752744397</v>
       </c>
     </row>
     <row r="10">
@@ -926,7 +926,7 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01933718971021047</v>
+        <v>0.01699921570621453</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
@@ -936,7 +936,7 @@
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.01134312997313243</v>
+        <v>0.01366387018162988</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -985,7 +985,7 @@
         <v>0.001812318702247689</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0005283169159123897</v>
+        <v>0.0005283169159123898</v>
       </c>
     </row>
     <row r="14">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0008374339498508112</v>
+        <v>0.0008385776562082654</v>
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
@@ -1014,13 +1014,13 @@
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>0.0005305651754875629</v>
+        <v>0.0005328712402509745</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0004300645193331492</v>
+        <v>0.0004313494277484474</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>0</v>
@@ -1034,34 +1034,34 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.009460033648302181</v>
+        <v>0.01019002781020623</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.006590029481056943</v>
+        <v>0.00703209564340576</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.004622801207855892</v>
+        <v>0.004664690193057405</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.007232945563139638</v>
+        <v>0.007831583077886126</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.007584356996964436</v>
+        <v>0.009003997571095362</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>0.006155362361514435</v>
+        <v>0.006122183412021991</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.003090270019222238</v>
+        <v>0.003578902920655822</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.004998923832634788</v>
+        <v>0.005529556865106759</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.002890377048181835</v>
+        <v>0.002604204019272931</v>
       </c>
     </row>
     <row r="16">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.004979442973322394</v>
+        <v>0.004979442973322393</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.001916838119437325</v>
@@ -1109,7 +1109,7 @@
         <v>0.000777841221715118</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.003599523439906903</v>
+        <v>0.003599523439906902</v>
       </c>
     </row>
     <row r="17">
@@ -1135,7 +1135,7 @@
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.001636704560189776</v>
+        <v>0.001614695018781853</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.001377351817479077</v>
+        <v>0.001469211886070795</v>
       </c>
     </row>
     <row r="18">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02810611342992632</v>
+        <v>0.02511715318568197</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01673481707868982</v>
+        <v>0.01681401683492986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008641137137479061</v>
+        <v>0.00801653208477947</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.007742976603401012</v>
+        <v>0.008418235519765687</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.01185061579241847</v>
+        <v>0.01143622536072413</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.009074092750443708</v>
+        <v>0.009620869332426464</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.006734785410403667</v>
+        <v>0.005997942028391666</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.003906752506675776</v>
+        <v>0.004660631082235489</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.00826593734740589</v>
+        <v>0.007755709253345599</v>
       </c>
     </row>
     <row r="19">
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0005517378583313043</v>
+        <v>0.0005548065654569375</v>
       </c>
     </row>
     <row r="21">
@@ -1285,35 +1285,35 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02440810390091318</v>
+        <v>0.0239942754910424</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02128311487247615</v>
+        <v>0.02339065330720138</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03857905321021107</v>
+        <v>0.0507380142689443</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.005025541987871114</v>
+        <v>0.006212030362717117</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.005022957210021876</v>
+        <v>0.004964754892351386</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.00534785708133929</v>
+        <v>0.005506126257549076</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.00454288872460613</v>
+        <v>0.004586838237409047</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.005033390767174619</v>
+        <v>0.004634221258168042</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.006278094292619563</v>
+        <v>0.006039171332590216</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.009569004502987529</v>
+        <v>0.01087070588199891</v>
       </c>
     </row>
     <row r="22">
@@ -1372,16 +1372,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0005065747166081898</v>
+        <v>0.000508468736117618</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.000353425682796334</v>
+        <v>0.000352796949303085</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0006704619367047628</v>
+        <v>0.0007636070127875876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0002618095692672041</v>
+        <v>0.0002640384419258205</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
@@ -1390,22 +1390,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0002411573014791673</v>
+        <v>0.0002409521083631178</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0007285317968212631</v>
+        <v>0.0007807058435758442</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0004400106886083836</v>
+        <v>0.0005146040289011416</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0001769179274220972</v>
+        <v>0.0001769903811812322</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0006310877917286849</v>
+        <v>0.0006640258429961685</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0007278667177481235</v>
+        <v>0.0007047449845824354</v>
       </c>
     </row>
     <row r="24">
@@ -1416,40 +1416,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.004412767455026336</v>
+        <v>0.0047285986122407</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.002905186916362567</v>
+        <v>0.002895583469973363</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.00447076331934095</v>
+        <v>0.004729186644646761</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.003289229818608284</v>
+        <v>0.00378953208837368</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.001891222318348706</v>
+        <v>0.002077069758427539</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.001686481519070049</v>
+        <v>0.002020727449237555</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.002515825251144868</v>
+        <v>0.0028533269365423</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.003186623888341849</v>
+        <v>0.003344964235115967</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.002560962442200445</v>
+        <v>0.002799757529693788</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.001769307330120667</v>
+        <v>0.001697554345982361</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.002723371004328803</v>
+        <v>0.002886895954521739</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.002618738656213066</v>
+        <v>0.002453896745036907</v>
       </c>
     </row>
     <row r="25">
@@ -1748,7 +1748,7 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>6167</v>
+        <v>6082</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>6908</v>
+        <v>7329</v>
       </c>
       <c r="N7" s="6" t="inlineStr"/>
     </row>
@@ -1893,13 +1893,13 @@
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>2238</v>
+        <v>2186</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>2215</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="12">
@@ -2028,7 +2028,7 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>10092</v>
+        <v>8872</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
@@ -2038,7 +2038,7 @@
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>7804</v>
+        <v>9401</v>
       </c>
       <c r="N15" s="6" t="inlineStr"/>
     </row>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
@@ -2160,13 +2160,13 @@
       </c>
       <c r="J18" s="6" t="inlineStr"/>
       <c r="K18" s="6" t="n">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0</v>
@@ -2180,34 +2180,34 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11685</v>
+        <v>12586</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>7570</v>
+        <v>8078</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5232</v>
+        <v>5280</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5545</v>
+        <v>6004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6237</v>
+        <v>7404</v>
       </c>
       <c r="J19" s="6" t="inlineStr"/>
       <c r="K19" s="6" t="n">
-        <v>12000</v>
+        <v>11935</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5948</v>
+        <v>6888</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>9853</v>
+        <v>10899</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>5761</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="20">
@@ -2325,7 +2325,7 @@
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1926</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="23">
@@ -2348,34 +2348,34 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9853</v>
+        <v>8805</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8545</v>
+        <v>8585</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5354</v>
+        <v>4967</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4398</v>
+        <v>4781</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>9838</v>
+        <v>9494</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8342</v>
+        <v>8845</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>8567</v>
+        <v>7630</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5301</v>
+        <v>6324</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11557</v>
+        <v>10843</v>
       </c>
     </row>
     <row r="24">
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
@@ -2519,35 +2519,35 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6514</v>
+        <v>6404</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6111</v>
+        <v>6717</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9152</v>
+        <v>12036</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6266</v>
+        <v>7745</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>5429</v>
+        <v>5366</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4515</v>
+        <v>4649</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7014</v>
+        <v>7082</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>6927</v>
+        <v>6378</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>8588</v>
+        <v>8261</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>10349</v>
+        <v>11757</v>
       </c>
     </row>
     <row r="28">
@@ -2650,16 +2650,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1653</v>
+        <v>1660</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2268</v>
+        <v>2583</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
@@ -2671,19 +2671,19 @@
         <v>850</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2648</v>
+        <v>2838</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2922</v>
+        <v>3417</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4360</v>
+        <v>4587</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5151</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="31">
@@ -2694,40 +2694,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14402</v>
+        <v>15433</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9938</v>
+        <v>9906</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15123</v>
+        <v>15997</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>11323</v>
+        <v>13045</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6385</v>
+        <v>7012</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5987</v>
+        <v>7174</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8870</v>
+        <v>10060</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>11582</v>
+        <v>12158</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>17004</v>
+        <v>18590</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>12334</v>
+        <v>11834</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>18814</v>
+        <v>19944</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>18533</v>
+        <v>17367</v>
       </c>
     </row>
     <row r="32">
